--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -130,12 +130,12 @@
     <t>well</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -145,10 +145,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>community</t>
   </si>
   <si>
     <t>hand</t>
@@ -1567,25 +1567,25 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6753246753246753</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1593,13 +1593,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1697,25 +1697,25 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.588957055214724</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L30">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="N30">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>134</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1723,13 +1723,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.574468085106383</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="10:17">
